--- a/biology/Histoire de la zoologie et de la botanique/Karl_Georg_Theodor_Kotschy/Karl_Georg_Theodor_Kotschy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Georg_Theodor_Kotschy/Karl_Georg_Theodor_Kotschy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Georg Theodor Kotschy (ou Carl Theodor Kotschy selon les sources) est un botaniste et explorateur autrichien né le 15 avril 1813 à Ustroń en Autriche (Silésie, aujourd'hui en Pologne) et mort le 11 juin 1866 à Vienne.
 Il a fait partie du Muséum de Vienne, et a fait plusieurs expéditions à l'Afrique (en Égypte notamment) et au Moyen-Orient d'où il a ramené de nombreuses plantes et des reptiles.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jean Lescure &amp; Bernard Le Garff, L'étymologie des noms d'amphibiens et de reptiles. Éditions Belin, 2006.  (ISBN 2-7011-4142-7)</t>
         </is>
